--- a/medicine/Pharmacie/Carl_Voegtlin/Carl_Voegtlin.xlsx
+++ b/medicine/Pharmacie/Carl_Voegtlin/Carl_Voegtlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl Voegtlin, né le 28 juillet 1879 à Bâle et mort le 9 avril 1960, est un pharmacologue suisse naturalisé américain, premier directeur de l'Institut national du cancer des États-Unis. Il est connu pour ses contributions à la pharmacologie des arsenicaux et la découverte, avec Homer Smith (en), de l'arsphénoxide comme agent actif du Salvarsan de Paul Ehrlich[1], et plus encore pour ses recherches sur le cancer.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Voegtlin, né le 28 juillet 1879 à Bâle et mort le 9 avril 1960, est un pharmacologue suisse naturalisé américain, premier directeur de l'Institut national du cancer des États-Unis. Il est connu pour ses contributions à la pharmacologie des arsenicaux et la découverte, avec Homer Smith (en), de l'arsphénoxide comme agent actif du Salvarsan de Paul Ehrlich, et plus encore pour ses recherches sur le cancer.
 </t>
         </is>
       </c>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Johns-Hopkins
-Carl Voegtlin est né à Bâle, en Suisse, le 28 juillet 1879. En 1902, après des études à Bâle, à Munich et à Genève, il passe un doctorat d'université en Allemagne, à Fribourg-en-Brisgau, avec une « contribution à l'étude du phényléther et de ses homologues[2] ». En 1903 et 1904, il complète sa formation à l'université de Manchester, en Angleterre. En 1904, il s'embarque pour les États-Unis. Les premiers mois de son séjour, il y enseigne la chimie à l'université du Wisconsin. Naturalisé américain, il entre comme assistant à la faculté de médecine (en) de l'université Johns-Hopkins. En 1906, il est nommé professeur adjoint de John Jacob Abel (en), directeur du département de pharmacologie. C'est au contact d'Abel que la carrière de Voegtlin s'infléchit et qu'il s'éloigne de la médecine pour se tourner vers la pharmacologie.
-Le Service de santé publique
-En 1913, succédant à Reid Hunt, Voegtlin est promu à la tête de la section de pharmacologie du Laboratoire d'hygiène du Service de santé publique, laboratoire devenu en 1937 Institut national de la Santé. Il occupe ce poste jusqu'en 1940, mais il reste au service de santé jusqu'en 1943, année de sa retraite, ayant été nommé en 1938 directeur de l'Institut national du cancer.
-L'enseignement
-En 1938, en tant que Herter Lecturer et Harvey Lecturer, Voegtlin prononce trois conférences sur le thème de la chimiothérapie au collège de médecine de l'hôpital Bellevue, aujourd'hui intégré à la faculté de médecine de l'université de New York. Il donne des cours à l'Institut de médecine de Chicago (en). De 1943, année de sa retraite du service de santé, à 1955, il enseigne la pharmacologie à la faculté de médecine (en) de l'université de Rochester dont il est fait docteur en sciences honoris causa en 1947. Enfin, il participe comme consultant au projet Manhattan.
-Les sociétés savantes
-Voegtlin était membre de la Société américaine de physiologie, de la Société américaine des chimistes du brassage (en), de la Société pour la biologie et la médecine expérimentales (Society for Experimental Biology and Medicine), de l'Association médicale américaine et du Comité sur la toxicomanie (Committee on Drug Addiction) du Conseil national de la recherche. Il a présidé la Société de pharmacologie et de thérapeutique expérimentale (en) de 1927 à 1930, l'Institut de médecine de l'Académie des sciences (en) en 1938, et l'Association américaine pour la recherche sur le cancer (en) en 1941. Il a participé à la 1re et à la 2e Conférence internationale pour la standardisation biologique, organisées par la Société des Nations en 1921 et 1925.
+          <t>Johns-Hopkins</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Voegtlin est né à Bâle, en Suisse, le 28 juillet 1879. En 1902, après des études à Bâle, à Munich et à Genève, il passe un doctorat d'université en Allemagne, à Fribourg-en-Brisgau, avec une « contribution à l'étude du phényléther et de ses homologues ». En 1903 et 1904, il complète sa formation à l'université de Manchester, en Angleterre. En 1904, il s'embarque pour les États-Unis. Les premiers mois de son séjour, il y enseigne la chimie à l'université du Wisconsin. Naturalisé américain, il entre comme assistant à la faculté de médecine (en) de l'université Johns-Hopkins. En 1906, il est nommé professeur adjoint de John Jacob Abel (en), directeur du département de pharmacologie. C'est au contact d'Abel que la carrière de Voegtlin s'infléchit et qu'il s'éloigne de la médecine pour se tourner vers la pharmacologie.
 </t>
         </is>
       </c>
@@ -546,13 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>L’œuvre scientifique</t>
+          <t>La carrière</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les travaux de Voegtlin ont touché à de très nombreux domaines, parmi lesquels il faut citer le métabolisme, la fonction parathyroïdienne, l'action de la digitaline sur les coronaires, l'étiologie de la pellagre, le traitement de la tétanie par le calcium, l'anaphylaxie, les vitamines, la chimiothérapie par les arsenicaux et les antimoniaux, le rôle biologique de la glutathione, la biochimie des tissus cancéreux et des tissus sains : division des cellules et développement des tumeurs.
-Bien qu'il soit surtout connu par ses recherches sur le cancer, poursuivies pour l'essentiel à partir de 1937, il s'est donc également beaucoup consacré, dans le service de pharmacologie, aux problèmes liés à la standardisation et au contrôle des médicaments arsenicaux employés à cette époque comme antisyphilitiques. Enfin, spécialiste de la toxicologie des composés de l'uranium, il a publié sur ce sujet en 1949, en collaboration avec Harold Hodge (en), un ouvrage en deux volumes suffisamment complet et approfondi pour faire encore référence en 2012.
+          <t>Le Service de santé publique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1913, succédant à Reid Hunt, Voegtlin est promu à la tête de la section de pharmacologie du Laboratoire d'hygiène du Service de santé publique, laboratoire devenu en 1937 Institut national de la Santé. Il occupe ce poste jusqu'en 1940, mais il reste au service de santé jusqu'en 1943, année de sa retraite, ayant été nommé en 1938 directeur de l'Institut national du cancer.
 </t>
         </is>
       </c>
@@ -578,10 +594,120 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>La carrière</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L'enseignement</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1938, en tant que Herter Lecturer et Harvey Lecturer, Voegtlin prononce trois conférences sur le thème de la chimiothérapie au collège de médecine de l'hôpital Bellevue, aujourd'hui intégré à la faculté de médecine de l'université de New York. Il donne des cours à l'Institut de médecine de Chicago (en). De 1943, année de sa retraite du service de santé, à 1955, il enseigne la pharmacologie à la faculté de médecine (en) de l'université de Rochester dont il est fait docteur en sciences honoris causa en 1947. Enfin, il participe comme consultant au projet Manhattan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carl_Voegtlin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carl_Voegtlin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>La carrière</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les sociétés savantes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voegtlin était membre de la Société américaine de physiologie, de la Société américaine des chimistes du brassage (en), de la Société pour la biologie et la médecine expérimentales (Society for Experimental Biology and Medicine), de l'Association médicale américaine et du Comité sur la toxicomanie (Committee on Drug Addiction) du Conseil national de la recherche. Il a présidé la Société de pharmacologie et de thérapeutique expérimentale (en) de 1927 à 1930, l'Institut de médecine de l'Académie des sciences (en) en 1938, et l'Association américaine pour la recherche sur le cancer (en) en 1941. Il a participé à la 1re et à la 2e Conférence internationale pour la standardisation biologique, organisées par la Société des Nations en 1921 et 1925.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carl_Voegtlin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carl_Voegtlin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>L’œuvre scientifique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les travaux de Voegtlin ont touché à de très nombreux domaines, parmi lesquels il faut citer le métabolisme, la fonction parathyroïdienne, l'action de la digitaline sur les coronaires, l'étiologie de la pellagre, le traitement de la tétanie par le calcium, l'anaphylaxie, les vitamines, la chimiothérapie par les arsenicaux et les antimoniaux, le rôle biologique de la glutathione, la biochimie des tissus cancéreux et des tissus sains : division des cellules et développement des tumeurs.
+Bien qu'il soit surtout connu par ses recherches sur le cancer, poursuivies pour l'essentiel à partir de 1937, il s'est donc également beaucoup consacré, dans le service de pharmacologie, aux problèmes liés à la standardisation et au contrôle des médicaments arsenicaux employés à cette époque comme antisyphilitiques. Enfin, spécialiste de la toxicologie des composés de l'uranium, il a publié sur ce sujet en 1949, en collaboration avec Harold Hodge (en), un ouvrage en deux volumes suffisamment complet et approfondi pour faire encore référence en 2012.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Carl_Voegtlin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carl_Voegtlin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1919 :
 « Experimental Mammalian Polyneuritis Produced by a Deficient Diet », avec Gleason Chandler Lake, dans American Journal of Physiology, 1er janvier, vol. 47, no 4, p. 558  (ISSN 0002-9513).
